--- a/Texts/Сюжетные сцены/Глава 14.xlsx
+++ b/Texts/Сюжетные сцены/Глава 14.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="2028">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -1362,18 +1362,9 @@
     <t xml:space="preserve"> Н-нет...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Это тюрьма...[K] Они хотят\nизбавиться от нас раз и навсегда.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Что?![K] И-избавиться?!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Секундочку.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я могу понять, почему они\nхотят избавиться от тебя, [CS:N]Гровайл[CR].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Но мы здесь причём?!</t>
   </si>
   <si>
@@ -1407,9 +1398,6 @@
     <t xml:space="preserve"> Аааа! Кто они?!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Это тюремщики, которые делают\nздесь всю грязную работу.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ещё они являются прихвостнями\n[CS:N]Даскнуара[CR].</t>
   </si>
   <si>
@@ -1431,12 +1419,6 @@
     <t xml:space="preserve"> Прекрасно. [CS:N]Саблаи[CR].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Эти трое... Нам нужно от них\nизбавиться.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Не обращайте на них внимания.[K]\nМожете подготовиться.</t>
-  </si>
-  <si>
     <t>[CS:N]Саблаи[CR]: Ух-хе-хе!</t>
   </si>
   <si>
@@ -1467,9 +1449,6 @@
     <t xml:space="preserve"> Что?..[K] Помогать тебе,\n[CS:N]Гровайл[CR]?..</t>
   </si>
   <si>
-    <t xml:space="preserve"> Нет времени думать...[K] Или ты\nхочешь остаться с ними?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Псс... Эй! Ты...</t>
   </si>
   <si>
@@ -1533,9 +1512,6 @@
     <t xml:space="preserve"> ...Хорошо.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Так, мы готовы начинать!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Очень хорошо.</t>
   </si>
   <si>
@@ -1695,18 +1671,9 @@
     <t xml:space="preserve"> Î-îåó...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Üóï óýñûíà...[K] Ïîé öïóÿó\néèáàâéóûòÿ ïó îàò ñàè é îàâòåãäà.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Œóï?![K] É-éèáàâéóûòÿ?!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Òåëôîäïœëô.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ÿ íïãô ðïîÿóû, ðïœåíô ïîé\nöïóÿó éèáàâéóûòÿ ïó óåáÿ, [CS:N]Ãñïâàêì[CR].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Îï íú èäåòû ðñéœæí?!</t>
   </si>
   <si>
@@ -1740,9 +1707,6 @@
     <t xml:space="preserve"> Àààà! Ëóï ïîé?!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Üóï óýñåíþéëé, ëïóïñúå äåìàýó\nèäåòû âòý ãñÿèîôý ñàáïóô.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Åþæ ïîé ÿâìÿýóòÿ ðñéöâïòóîÿíé\n[CS:N]Äàòëîôàñà[CR].</t>
   </si>
   <si>
@@ -1764,12 +1728,6 @@
     <t xml:space="preserve"> Ðñåëñàòîï. [CS:N]Òàáìàé[CR].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Üóé óñïå... Îàí îôçîï ïó îéö\néèáàâéóûòÿ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Îå ïáñàþàêóå îà îéö âîéíàîéÿ.[K]\nÍïçåóå ðïäãïóïâéóûòÿ.</t>
-  </si>
-  <si>
     <t>[CS:N]Òàáìàé[CR]: Ôö-öå-öå!</t>
   </si>
   <si>
@@ -1800,9 +1758,6 @@
     <t xml:space="preserve"> Œóï?..[K] Ðïíïãàóû óåáå,\n[CS:N]Ãñïâàêì[CR]?..</t>
   </si>
   <si>
-    <t xml:space="preserve"> Îåó âñåíåîé äôíàóû...[K] Éìé óú\nöïœåšû ïòóàóûòÿ ò îéíé?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ðòò... Üê! Óú...</t>
   </si>
   <si>
@@ -1866,9 +1821,6 @@
     <t xml:space="preserve"> ...Öïñïšï.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Óàë, íú ãïóïâú îàœéîàóû!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ïœåîû öïñïšï.</t>
   </si>
   <si>
@@ -4494,9 +4446,6 @@
     <t xml:space="preserve"> Но...[K] Я всё понимаю,\n[hero].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я не знаю почему, но\n[CS:N]Даскнуар[CR] хотел от нас избавиться.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Получается, единственный\nизвестный нам Покемон из будущего...</t>
   </si>
   <si>
@@ -4599,9 +4548,6 @@
     <t xml:space="preserve"> Но...[K] Возможно, у нас нет\nиного выбора...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я не знаю почему, но\n[CS:N]Даскнуар[CR] хочет избавиться от нас.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> У нас нет иного выбора.[K]\nНам нужно положиться на [CS:N]Гровайла[CR].</t>
   </si>
   <si>
@@ -4815,9 +4761,6 @@
     <t xml:space="preserve"> Îï...[K] Ÿ âòæ ðïîéíàý,\n[hero].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ÿ îå èîàý ðïœåíô, îï\n[CS:N]Äàòëîôàñ[CR] öïóåì ïó îàò éèáàâéóûòÿ.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ðïìôœàåóòÿ, åäéîòóâåîîúê\néèâåòóîúê îàí Ðïëåíïî éè áôäôþåãï...</t>
   </si>
   <si>
@@ -4920,9 +4863,6 @@
     <t xml:space="preserve"> Îï...[K] Âïèíïçîï, ô îàò îåó\néîïãï âúáïñà...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ÿ îå èîàý ðïœåíô, îï\n[CS:N]Äàòëîôàñ[CR] öïœåó éèáàâéóûòÿ ïó îàò.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ô îàò îåó éîïãï âúáïñà.[K]\nÎàí îôçîï ðïìïçéóûòÿ îà [CS:N]Ãñïâàêìà[CR].</t>
   </si>
   <si>
@@ -6109,13 +6049,67 @@
   </si>
   <si>
     <t xml:space="preserve"> Îô...[K] Ìàäîï.[K] Èà íîïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это зал казни...[K] Они хотят\nказнить нас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я могу понять, почему они\nхотят казнить тебя, [CS:N]Гровайл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это палачи, которые делают\nздесь всю грязную работу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти трое... Нам нужно их\nказнить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не обращайте на них внимания.[K]\nПодготовьтесь к казни.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет времени думать...[K] Или ты\nхочешь помереть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы подготовились к казни!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю почему, но\n[CS:N]Даскнуар[CR] хотел нас казнить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï èàì ëàèîé...[K] Ïîé öïóÿó\nëàèîéóû îàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] К-казнить?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Ë-ëàèîéóû?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ íïãô ðïîÿóû, ðïœåíô ïîé\nöïóÿó ëàèîéóû óåáÿ, [CS:N]Ãñïâàêì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ðàìàœé, ëïóïñúå äåìàýó\nèäåòû âòý ãñÿèîôý ñàáïóô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé óñïå... Îàí îôçîï éö\nëàèîéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ïáñàþàêóå îà îéö âîéíàîéÿ.[K]\nÐïäãïóïâûóåòû ë ëàèîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåó âñåíåîé äôíàóû...[K] Éìé óú\nöïœåšû ðïíåñåóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïäãïóïâéìéòû ë ëàèîé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý ðïœåíô, îï\n[CS:N]Äàòëîôàñ[CR] öïóåì îàò ëàèîéóû.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6141,6 +6135,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6369,7 +6370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6546,6 +6547,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6830,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D420" sqref="D420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8044,7 +8048,7 @@
         <v>433</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8060,7 +8064,7 @@
         <v>434</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8076,7 +8080,7 @@
         <v>435</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8092,7 +8096,7 @@
         <v>436</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8124,7 +8128,7 @@
         <v>437</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8140,7 +8144,7 @@
         <v>438</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8158,7 +8162,7 @@
         <v>439</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8174,7 +8178,7 @@
         <v>440</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8190,7 +8194,7 @@
         <v>441</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8206,7 +8210,7 @@
         <v>442</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8222,7 +8226,7 @@
         <v>443</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8238,7 +8242,7 @@
         <v>444</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8256,7 +8260,7 @@
         <v>445</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8272,7 +8276,7 @@
         <v>446</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8283,14 +8287,14 @@
       <c r="C86" s="24">
         <v>300</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="60" t="s">
         <v>291</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>447</v>
+        <v>2010</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>558</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8299,14 +8303,14 @@
       <c r="C87" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="60" t="s">
         <v>292</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>448</v>
+        <v>2019</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>559</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8319,26 +8323,26 @@
         <v>294</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="39"/>
       <c r="C89" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="60" t="s">
         <v>296</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>450</v>
+        <v>2011</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>561</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8351,10 +8355,10 @@
         <v>298</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8367,10 +8371,10 @@
         <v>300</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8385,10 +8389,10 @@
         <v>302</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8401,10 +8405,10 @@
         <v>303</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8417,10 +8421,10 @@
         <v>304</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8433,10 +8437,10 @@
         <v>306</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8449,10 +8453,10 @@
         <v>308</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8467,10 +8471,10 @@
         <v>310</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8483,10 +8487,10 @@
         <v>311</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8499,10 +8503,10 @@
         <v>312</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8515,10 +8519,10 @@
         <v>313</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8529,14 +8533,14 @@
       <c r="C101" s="24">
         <v>674</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="60" t="s">
         <v>315</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>462</v>
+        <v>2012</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>573</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8549,10 +8553,10 @@
         <v>316</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8565,10 +8569,10 @@
         <v>317</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -8581,10 +8585,10 @@
         <v>319</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8599,10 +8603,10 @@
         <v>321</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -8615,10 +8619,10 @@
         <v>322</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8631,10 +8635,10 @@
         <v>323</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -8649,10 +8653,10 @@
         <v>325</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8661,14 +8665,14 @@
       <c r="C109" s="24">
         <v>806</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="60" t="s">
         <v>326</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>470</v>
+        <v>2013</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>581</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -8681,10 +8685,10 @@
         <v>304</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8695,14 +8699,14 @@
       <c r="C111" s="24">
         <v>829</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="60" t="s">
         <v>328</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>471</v>
+        <v>2014</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>582</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8717,10 +8721,10 @@
         <v>329</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8733,10 +8737,10 @@
         <v>331</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8749,10 +8753,10 @@
         <v>332</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8765,10 +8769,10 @@
         <v>335</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8783,10 +8787,10 @@
         <v>337</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8799,10 +8803,10 @@
         <v>338</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8815,10 +8819,10 @@
         <v>339</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8833,10 +8837,10 @@
         <v>341</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8849,10 +8853,10 @@
         <v>342</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8865,10 +8869,10 @@
         <v>343</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8879,14 +8883,14 @@
       <c r="C122" s="24">
         <v>1125</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="60" t="s">
         <v>345</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>482</v>
+        <v>2015</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>593</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -8899,10 +8903,10 @@
         <v>346</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -8915,10 +8919,10 @@
         <v>347</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -8931,10 +8935,10 @@
         <v>348</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -8947,10 +8951,10 @@
         <v>349</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8963,10 +8967,10 @@
         <v>351</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -8979,10 +8983,10 @@
         <v>353</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -8995,10 +8999,10 @@
         <v>355</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -9013,10 +9017,10 @@
         <v>356</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9029,10 +9033,10 @@
         <v>357</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9045,10 +9049,10 @@
         <v>358</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9061,10 +9065,10 @@
         <v>359</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -9077,10 +9081,10 @@
         <v>361</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -9095,10 +9099,10 @@
         <v>362</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -9111,10 +9115,10 @@
         <v>363</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9127,10 +9131,10 @@
         <v>364</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F137" s="26" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9143,10 +9147,10 @@
         <v>365</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9159,10 +9163,10 @@
         <v>366</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F139" s="26" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -9175,10 +9179,10 @@
         <v>367</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -9191,10 +9195,10 @@
         <v>369</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -9209,10 +9213,10 @@
         <v>370</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9225,10 +9229,10 @@
         <v>371</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F143" s="26" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,10 +9247,10 @@
         <v>373</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -9257,14 +9261,14 @@
       <c r="C145" s="24">
         <v>1357</v>
       </c>
-      <c r="D145" s="25" t="s">
+      <c r="D145" s="60" t="s">
         <v>374</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>504</v>
+        <v>2016</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>615</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -9279,10 +9283,10 @@
         <v>375</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9295,10 +9299,10 @@
         <v>376</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -9311,10 +9315,10 @@
         <v>377</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9329,10 +9333,10 @@
         <v>329</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -9347,10 +9351,10 @@
         <v>378</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9365,10 +9369,10 @@
         <v>329</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9381,10 +9385,10 @@
         <v>379</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -9399,10 +9403,10 @@
         <v>381</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -9415,10 +9419,10 @@
         <v>382</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F154" s="26" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -9431,10 +9435,10 @@
         <v>383</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F155" s="26" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9449,10 +9453,10 @@
         <v>384</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F156" s="26" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9465,10 +9469,10 @@
         <v>385</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="F157" s="26" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9481,10 +9485,10 @@
         <v>386</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9497,10 +9501,10 @@
         <v>387</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9515,10 +9519,10 @@
         <v>389</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9531,10 +9535,10 @@
         <v>390</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9547,10 +9551,10 @@
         <v>392</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9563,10 +9567,10 @@
         <v>394</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F163" s="26" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9581,10 +9585,10 @@
         <v>329</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9599,10 +9603,10 @@
         <v>396</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9615,10 +9619,10 @@
         <v>397</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -9631,10 +9635,10 @@
         <v>399</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9649,10 +9653,10 @@
         <v>401</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F168" s="26" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9665,10 +9669,10 @@
         <v>402</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F169" s="26" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9681,10 +9685,10 @@
         <v>404</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F170" s="26" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9697,10 +9701,10 @@
         <v>406</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F171" s="26" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -9713,10 +9717,10 @@
         <v>408</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F172" s="26" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -9731,10 +9735,10 @@
         <v>410</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F173" s="26" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9747,10 +9751,10 @@
         <v>411</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F174" s="26" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -9765,10 +9769,10 @@
         <v>413</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F175" s="26" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -9783,10 +9787,10 @@
         <v>414</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F176" s="26" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -9801,10 +9805,10 @@
         <v>415</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F177" s="26" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -9819,10 +9823,10 @@
         <v>416</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -9835,10 +9839,10 @@
         <v>417</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9853,10 +9857,10 @@
         <v>418</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F180" s="26" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -9869,10 +9873,10 @@
         <v>419</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F181" s="26" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -9885,10 +9889,10 @@
         <v>420</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F182" s="26" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9901,10 +9905,10 @@
         <v>421</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F183" s="26" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9917,10 +9921,10 @@
         <v>422</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F184" s="26" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9935,10 +9939,10 @@
         <v>329</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F185" s="26" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9951,10 +9955,10 @@
         <v>423</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F186" s="26" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -9967,10 +9971,10 @@
         <v>425</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F187" s="26" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9983,10 +9987,10 @@
         <v>426</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F188" s="26" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -9999,10 +10003,10 @@
         <v>427</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F189" s="26" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10017,10 +10021,10 @@
         <v>431</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F190" s="26" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10033,30 +10037,30 @@
         <v>432</v>
       </c>
       <c r="E191" s="30" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F191" s="31" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C192" s="19">
         <v>9</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="E192" s="20" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10068,61 +10072,61 @@
         <v>14</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="F193" s="26" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="38"/>
       <c r="B194" s="39"/>
       <c r="C194" s="24" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="B195" s="39"/>
       <c r="C195" s="24" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="F195" s="26" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="38"/>
       <c r="B196" s="39"/>
       <c r="C196" s="24" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -10134,29 +10138,29 @@
         <v>66</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
       <c r="B198" s="39"/>
       <c r="C198" s="24" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F198" s="26" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -10168,45 +10172,45 @@
         <v>87</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="F199" s="26" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="38"/>
       <c r="B200" s="39"/>
       <c r="C200" s="24" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F200" s="26" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
       <c r="B201" s="39"/>
       <c r="C201" s="24" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="F201" s="26" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10218,13 +10222,13 @@
         <v>122</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F202" s="26" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10234,29 +10238,29 @@
         <v>125</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A204" s="38"/>
       <c r="B204" s="39"/>
       <c r="C204" s="24" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F204" s="26" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10268,161 +10272,161 @@
         <v>146</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="F205" s="26" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="38"/>
       <c r="B206" s="39"/>
       <c r="C206" s="24" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F206" s="26" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
       <c r="B207" s="39"/>
       <c r="C207" s="24" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="F207" s="26" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="47"/>
       <c r="B208" s="48"/>
       <c r="C208" s="16" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F208" s="42" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="38"/>
       <c r="B209" s="39" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="E209" s="25" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F209" s="26" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
       <c r="B210" s="39"/>
       <c r="C210" s="24" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="E210" s="25" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="F210" s="26" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
       <c r="B211" s="39"/>
       <c r="C211" s="24" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F211" s="26" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="47"/>
       <c r="B212" s="48"/>
       <c r="C212" s="16" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="F212" s="42" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
       <c r="B213" s="39" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="D213" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E213" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="F213" s="26" t="s">
         <v>742</v>
-      </c>
-      <c r="E213" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="38"/>
       <c r="B214" s="39"/>
       <c r="C214" s="24" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="D214" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="E214" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="F214" s="26" t="s">
         <v>743</v>
-      </c>
-      <c r="E214" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="F214" s="26" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -10434,29 +10438,29 @@
         <v>48</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E215" s="25" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="F215" s="26" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
       <c r="B216" s="39"/>
       <c r="C216" s="24" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="D216" s="25" t="s">
         <v>304</v>
       </c>
       <c r="E216" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F216" s="26" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -10468,29 +10472,29 @@
         <v>88</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="E217" s="25" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F217" s="26" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="38"/>
       <c r="B218" s="39"/>
       <c r="C218" s="24" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E218" s="25" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="F218" s="26" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10502,49 +10506,49 @@
         <v>131</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="E219" s="30" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F219" s="31" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="36" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B220" s="37" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E220" s="20" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="F221" s="26" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10554,13 +10558,13 @@
         <v>31</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E222" s="25" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F222" s="26" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -10572,13 +10576,13 @@
         <v>37</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="E223" s="25" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="F223" s="26" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10588,45 +10592,45 @@
         <v>40</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="E224" s="25" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F224" s="26" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="39"/>
       <c r="C225" s="24" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E225" s="25" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="F225" s="26" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="38"/>
       <c r="B226" s="39"/>
       <c r="C226" s="24" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="E226" s="25" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F226" s="26" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -10638,29 +10642,29 @@
         <v>75</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="E227" s="25" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="F227" s="26" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="38"/>
       <c r="B228" s="39"/>
       <c r="C228" s="24" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E228" s="25" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F228" s="26" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -10672,13 +10676,13 @@
         <v>150</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E229" s="25" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F229" s="26" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -10688,13 +10692,13 @@
         <v>153</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="E230" s="25" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="F230" s="26" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10704,61 +10708,61 @@
         <v>156</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E231" s="25" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F231" s="26" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
       <c r="B232" s="39"/>
       <c r="C232" s="24" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="E232" s="25" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="F232" s="26" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A233" s="38"/>
       <c r="B233" s="39"/>
       <c r="C233" s="24" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="E233" s="25" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F233" s="26" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A234" s="38"/>
       <c r="B234" s="39"/>
       <c r="C234" s="24" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E234" s="25" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="F234" s="26" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10768,13 +10772,13 @@
         <v>210</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="E235" s="25" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F235" s="26" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10784,13 +10788,13 @@
         <v>214</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="F236" s="26" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10800,29 +10804,29 @@
         <v>218</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E237" s="25" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F237" s="26" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="22"/>
       <c r="B238" s="23"/>
       <c r="C238" s="24" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E238" s="25" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -10840,7 +10844,7 @@
         <v>439</v>
       </c>
       <c r="F239" s="26" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10850,13 +10854,13 @@
         <v>239</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E240" s="25" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="F240" s="26" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10866,13 +10870,13 @@
         <v>242</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F241" s="26" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10882,45 +10886,45 @@
         <v>245</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="F242" s="26" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="38"/>
       <c r="B243" s="39"/>
       <c r="C243" s="24" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F243" s="26" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A244" s="38"/>
       <c r="B244" s="39"/>
       <c r="C244" s="24" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="E244" s="25" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="F244" s="26" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10932,13 +10936,13 @@
         <v>281</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="E245" s="25" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F245" s="26" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10948,13 +10952,13 @@
         <v>284</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E246" s="25" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="F246" s="26" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10964,13 +10968,13 @@
         <v>287</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F247" s="26" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -10980,13 +10984,13 @@
         <v>290</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="F248" s="26" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10996,13 +11000,13 @@
         <v>293</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F249" s="26" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -11012,13 +11016,13 @@
         <v>305</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="F250" s="26" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -11028,77 +11032,77 @@
         <v>293</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F251" s="26" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="38"/>
       <c r="B252" s="39"/>
       <c r="C252" s="24" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="F252" s="26" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A253" s="38"/>
       <c r="B253" s="39"/>
       <c r="C253" s="24" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="E253" s="25" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F253" s="26" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A254" s="38"/>
       <c r="B254" s="39"/>
       <c r="C254" s="24" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="E254" s="25" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="F254" s="26" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A255" s="38"/>
       <c r="B255" s="39"/>
       <c r="C255" s="24" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F255" s="26" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -11110,13 +11114,13 @@
         <v>393</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="E256" s="25" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="F256" s="26" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11126,29 +11130,29 @@
         <v>396</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F257" s="26" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="38"/>
       <c r="B258" s="39"/>
       <c r="C258" s="24" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="D258" s="25" t="s">
         <v>304</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F258" s="26" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11160,13 +11164,13 @@
         <v>432</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="E259" s="25" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="F259" s="26" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11176,13 +11180,13 @@
         <v>435</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="E260" s="25" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F260" s="26" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -11192,29 +11196,29 @@
         <v>438</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="E261" s="25" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="F261" s="26" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="38"/>
       <c r="B262" s="39"/>
       <c r="C262" s="24" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="E262" s="25" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F262" s="26" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11226,61 +11230,61 @@
         <v>459</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="E263" s="25" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="38"/>
       <c r="B264" s="39"/>
       <c r="C264" s="24" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="E264" s="25" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F264" s="26" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="38"/>
       <c r="B265" s="39"/>
       <c r="C265" s="24" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="E265" s="25" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="F265" s="26" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A266" s="38"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="E266" s="25" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11290,67 +11294,67 @@
         <v>520</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="E267" s="25" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="F267" s="26" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A268" s="47"/>
       <c r="B268" s="48"/>
       <c r="C268" s="16" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F268" s="42" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="49" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="B269" s="24" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="C269" s="24">
         <v>14</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="E269" s="25" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="F269" s="26" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="33" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="B270" s="24"/>
       <c r="C270" s="24">
         <v>27</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="E270" s="25" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="F270" s="26" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -11362,13 +11366,13 @@
         <v>32</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="E271" s="25" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="F271" s="26" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11378,13 +11382,13 @@
         <v>35</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="E272" s="25" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="F272" s="26" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11394,13 +11398,13 @@
         <v>38</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E273" s="25" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F273" s="26" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11410,13 +11414,13 @@
         <v>41</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="E274" s="25" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="F274" s="26" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11426,13 +11430,13 @@
         <v>44</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="E275" s="25" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="F275" s="26" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11442,31 +11446,31 @@
         <v>47</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E276" s="25" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="F276" s="26" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A277" s="33" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="B277" s="24"/>
       <c r="C277" s="24">
         <v>53</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="E277" s="25" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="F277" s="26" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11478,31 +11482,31 @@
         <v>58</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="F278" s="42" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="38"/>
       <c r="B279" s="39" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="C279" s="24" t="s">
         <v>148</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="E279" s="25" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="F279" s="26" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11512,45 +11516,45 @@
         <v>150</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="E280" s="25" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="F280" s="26" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="38"/>
       <c r="B281" s="39"/>
       <c r="C281" s="24" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="E281" s="25" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="F281" s="26" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A282" s="38"/>
       <c r="B282" s="39"/>
       <c r="C282" s="24" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="E282" s="25" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="F282" s="26" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11562,13 +11566,13 @@
         <v>90</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="E283" s="25" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="F283" s="26" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11578,13 +11582,13 @@
         <v>93</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="E284" s="25" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="F284" s="26" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11594,173 +11598,173 @@
         <v>96</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="E285" s="25" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="F285" s="26" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="38"/>
       <c r="B286" s="39"/>
       <c r="C286" s="24" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="E286" s="25" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="F286" s="26" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="38"/>
       <c r="B287" s="39"/>
       <c r="C287" s="24" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="E287" s="25" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="F287" s="26" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A288" s="38"/>
       <c r="B288" s="39"/>
       <c r="C288" s="24" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="E288" s="25" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="F288" s="26" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A289" s="38"/>
       <c r="B289" s="39"/>
       <c r="C289" s="24" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="E289" s="25" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="F289" s="26" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A290" s="38"/>
       <c r="B290" s="39"/>
       <c r="C290" s="24" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="E290" s="25" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="F290" s="26" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A291" s="38"/>
       <c r="B291" s="39"/>
       <c r="C291" s="24" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="E291" s="25" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="F291" s="26" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A292" s="38"/>
       <c r="B292" s="39"/>
       <c r="C292" s="24" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="E292" s="25" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="38"/>
       <c r="B293" s="39"/>
       <c r="C293" s="24" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="E293" s="25" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="F293" s="26" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A294" s="38"/>
       <c r="B294" s="39"/>
       <c r="C294" s="24" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="E294" s="25" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="F294" s="26" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A295" s="38"/>
       <c r="B295" s="39"/>
       <c r="C295" s="24" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="E295" s="25" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="F295" s="26" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -11772,79 +11776,79 @@
         <v>275</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="E296" s="25" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F296" s="26" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="38"/>
       <c r="B297" s="39"/>
       <c r="C297" s="24" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="E297" s="25" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="F297" s="26" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="38"/>
       <c r="B298" s="39"/>
       <c r="C298" s="24" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="E298" s="25" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="F298" s="26" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="51"/>
       <c r="B299" s="52"/>
       <c r="C299" s="29" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="D299" s="30" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="E299" s="30" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="F299" s="31" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="36" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="B300" s="37"/>
       <c r="C300" s="53">
         <v>21</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="E300" s="20" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="F300" s="21" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -11854,13 +11858,13 @@
         <v>25</v>
       </c>
       <c r="D301" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E301" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F301" s="26" t="s">
         <v>1032</v>
-      </c>
-      <c r="E301" s="25" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F301" s="26" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -11870,29 +11874,29 @@
         <v>30</v>
       </c>
       <c r="D302" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E302" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F302" s="26" t="s">
         <v>1033</v>
-      </c>
-      <c r="E302" s="25" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F302" s="26" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="38"/>
       <c r="B303" s="39"/>
       <c r="C303" s="24" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="D303" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E303" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F303" s="26" t="s">
         <v>1034</v>
-      </c>
-      <c r="E303" s="25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F303" s="26" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -11902,13 +11906,13 @@
         <v>61</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="E304" s="25" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="F304" s="26" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11918,13 +11922,13 @@
         <v>67</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="E305" s="25" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="F305" s="26" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11934,13 +11938,13 @@
         <v>71</v>
       </c>
       <c r="D306" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E306" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F306" s="26" t="s">
         <v>1037</v>
-      </c>
-      <c r="E306" s="25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F306" s="26" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11950,81 +11954,81 @@
         <v>273</v>
       </c>
       <c r="D307" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E307" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F307" s="42" t="s">
         <v>1038</v>
-      </c>
-      <c r="E307" s="17" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F307" s="42" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="54" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
       <c r="B308" s="39" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="E308" s="25" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="F308" s="26" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A309" s="38"/>
       <c r="B309" s="39"/>
       <c r="C309" s="24" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="E309" s="25" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="F309" s="26" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A310" s="38"/>
       <c r="B310" s="39"/>
       <c r="C310" s="24" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="E310" s="25" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="F310" s="26" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A311" s="38"/>
       <c r="B311" s="39"/>
       <c r="C311" s="24" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="E311" s="25" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="F311" s="26" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12034,13 +12038,13 @@
         <v>116</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="E312" s="25" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="F312" s="26" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12050,145 +12054,145 @@
         <v>120</v>
       </c>
       <c r="D313" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E313" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F313" s="31" t="s">
         <v>1037</v>
-      </c>
-      <c r="E313" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F313" s="31" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="36" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="E314" s="20" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="F314" s="21" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="38"/>
       <c r="B315" s="39"/>
       <c r="C315" s="24" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="F315" s="26" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="38"/>
       <c r="B316" s="39"/>
       <c r="C316" s="24" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="F316" s="26" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="38"/>
       <c r="B317" s="39"/>
       <c r="C317" s="24" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="E317" s="25" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F317" s="26" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A318" s="38"/>
       <c r="B318" s="39"/>
       <c r="C318" s="24" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
       <c r="F318" s="26" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
       <c r="B319" s="39"/>
       <c r="C319" s="24" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="F319" s="26" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="38"/>
       <c r="B320" s="39"/>
       <c r="C320" s="24" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="E320" s="25" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="F320" s="26" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="38"/>
       <c r="B321" s="39"/>
       <c r="C321" s="24" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="D321" s="25" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="E321" s="25" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="F321" s="26" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12198,13 +12202,13 @@
         <v>202</v>
       </c>
       <c r="D322" s="25" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="E322" s="25" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="F322" s="26" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12214,13 +12218,13 @@
         <v>206</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="E323" s="25" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="F323" s="26" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12230,237 +12234,237 @@
         <v>210</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="E324" s="25" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="F324" s="26" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A325" s="38"/>
       <c r="B325" s="39"/>
       <c r="C325" s="24" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="E325" s="25" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="F325" s="26" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="38"/>
       <c r="B326" s="39"/>
       <c r="C326" s="24" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="E326" s="25" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="F326" s="26" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
       <c r="B327" s="39"/>
       <c r="C327" s="24" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="D327" s="25" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="E327" s="25" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="F327" s="26" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A328" s="38"/>
       <c r="B328" s="39"/>
       <c r="C328" s="24" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="D328" s="25" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="E328" s="25" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
       <c r="F328" s="26" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A329" s="38"/>
       <c r="B329" s="39"/>
       <c r="C329" s="24" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="D329" s="25" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="E329" s="25" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="F329" s="26" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A330" s="38"/>
       <c r="B330" s="39"/>
       <c r="C330" s="24" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="D330" s="25" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="E330" s="25" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="F330" s="26" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A331" s="38"/>
       <c r="B331" s="39"/>
       <c r="C331" s="24" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="D331" s="25" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
       <c r="F331" s="26" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="38"/>
       <c r="B332" s="39"/>
       <c r="C332" s="24" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="D332" s="25" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="E332" s="25" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="F332" s="26" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
       <c r="B333" s="39"/>
       <c r="C333" s="24" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
       <c r="D333" s="25" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
       <c r="E333" s="25" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="F333" s="26" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="22"/>
       <c r="B334" s="23"/>
       <c r="C334" s="24" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="D334" s="25" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="E334" s="25" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="F334" s="26" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="38"/>
       <c r="B335" s="39"/>
       <c r="C335" s="24" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
       <c r="E335" s="25" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="F335" s="26" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A336" s="38"/>
       <c r="B336" s="39"/>
       <c r="C336" s="24" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="E336" s="25" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="F336" s="26" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
       <c r="B337" s="39"/>
       <c r="C337" s="24" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
       <c r="E337" s="25" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="F337" s="26" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A338" s="38"/>
       <c r="B338" s="39"/>
       <c r="C338" s="24" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
       <c r="D338" s="25" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
       <c r="E338" s="25" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="F338" s="26" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -12470,13 +12474,13 @@
         <v>478</v>
       </c>
       <c r="D339" s="25" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="E339" s="25" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="F339" s="26" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -12486,93 +12490,93 @@
         <v>482</v>
       </c>
       <c r="D340" s="25" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="E340" s="25" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="F340" s="26" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="22"/>
       <c r="B341" s="23"/>
       <c r="C341" s="24" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
       <c r="D341" s="25" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="F341" s="26" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="22"/>
       <c r="B342" s="23"/>
       <c r="C342" s="24" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
       <c r="D342" s="25" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
       <c r="E342" s="25" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="F342" s="26" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A343" s="22"/>
       <c r="B343" s="23"/>
       <c r="C343" s="24" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
       <c r="E343" s="25" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="F343" s="26" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
       <c r="B344" s="39"/>
       <c r="C344" s="24" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
       <c r="E344" s="25" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="F344" s="26" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="38"/>
       <c r="B345" s="39"/>
       <c r="C345" s="24" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="D345" s="25" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
       <c r="E345" s="25" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="F345" s="26" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12582,177 +12586,177 @@
         <v>567</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
       <c r="E346" s="25" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="F346" s="26" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="38"/>
       <c r="B347" s="39"/>
       <c r="C347" s="24" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="E347" s="25" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="F347" s="26" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="38"/>
       <c r="B348" s="39"/>
       <c r="C348" s="24" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
       <c r="D348" s="25" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
       <c r="E348" s="25" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="F348" s="26" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="22"/>
       <c r="B349" s="23"/>
       <c r="C349" s="24" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
       <c r="E349" s="25" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="F349" s="26" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="38"/>
       <c r="B350" s="39"/>
       <c r="C350" s="24" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
       <c r="E350" s="25" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="F350" s="26" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A351" s="38"/>
       <c r="B351" s="39"/>
       <c r="C351" s="24" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="D351" s="25" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="E351" s="25" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="F351" s="26" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
       <c r="B352" s="39"/>
       <c r="C352" s="24" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="E352" s="25" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="F352" s="26" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
       <c r="B353" s="39"/>
       <c r="C353" s="24" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
       <c r="E353" s="25" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="F353" s="26" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A354" s="38"/>
       <c r="B354" s="39"/>
       <c r="C354" s="24" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
       <c r="D354" s="25" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
       <c r="E354" s="25" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="F354" s="26" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="51"/>
       <c r="B355" s="52"/>
       <c r="C355" s="29" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="D355" s="30" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="E355" s="30" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="F355" s="31" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A356" s="36" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="D356" s="20" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="E356" s="20" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="F356" s="21" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12762,29 +12766,29 @@
         <v>33</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="E357" s="25" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="F357" s="26" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="38"/>
       <c r="B358" s="39"/>
       <c r="C358" s="24" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="D358" s="25" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="E358" s="25" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="F358" s="26" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12794,13 +12798,13 @@
         <v>68</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="E359" s="25" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="F359" s="26" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12810,13 +12814,13 @@
         <v>67</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="E360" s="25" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="F360" s="26" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12826,81 +12830,81 @@
         <v>71</v>
       </c>
       <c r="D361" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E361" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F361" s="26" t="s">
         <v>1037</v>
-      </c>
-      <c r="E361" s="25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F361" s="26" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A362" s="47"/>
       <c r="B362" s="48"/>
       <c r="C362" s="16" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="E362" s="17" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="F362" s="42" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A363" s="54" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="B363" s="57" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="C363" s="24" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="E363" s="25" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="F363" s="26" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A364" s="38"/>
       <c r="B364" s="39"/>
       <c r="C364" s="24" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="D364" s="25" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="E364" s="25" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="F364" s="26" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38"/>
       <c r="B365" s="39"/>
       <c r="C365" s="24" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="E365" s="25" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="F365" s="26" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12910,13 +12914,13 @@
         <v>92</v>
       </c>
       <c r="D366" s="25" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="E366" s="25" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="F366" s="26" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12926,177 +12930,177 @@
         <v>96</v>
       </c>
       <c r="D367" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E367" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F367" s="31" t="s">
         <v>1037</v>
-      </c>
-      <c r="E367" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F367" s="31" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A368" s="36" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="D368" s="20" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="E368" s="20" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="F368" s="21" t="s">
-        <v>1538</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="38"/>
       <c r="B369" s="39"/>
       <c r="C369" s="24" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="E369" s="25" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="F369" s="26" t="s">
-        <v>1539</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A370" s="38"/>
       <c r="B370" s="39"/>
       <c r="C370" s="24" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="D370" s="25" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="E370" s="25" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="F370" s="26" t="s">
-        <v>1540</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="38"/>
       <c r="B371" s="39"/>
       <c r="C371" s="24" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="D371" s="25" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="E371" s="25" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="F371" s="26" t="s">
-        <v>1541</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="38"/>
       <c r="B372" s="39"/>
       <c r="C372" s="24" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="D372" s="25" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="E372" s="25" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="F372" s="26" t="s">
-        <v>1542</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="39"/>
       <c r="C373" s="24" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="E373" s="25" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="F373" s="26" t="s">
-        <v>1543</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="38"/>
       <c r="B374" s="39"/>
       <c r="C374" s="24" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
       <c r="E374" s="25" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="F374" s="26" t="s">
-        <v>1544</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A375" s="38"/>
       <c r="B375" s="39"/>
       <c r="C375" s="24" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="E375" s="25" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="F375" s="26" t="s">
-        <v>1545</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="B376" s="39"/>
       <c r="C376" s="24" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="D376" s="25" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="E376" s="25" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="F376" s="26" t="s">
-        <v>1546</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A377" s="38"/>
       <c r="B377" s="24"/>
       <c r="C377" s="24" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
       <c r="E377" s="25" t="s">
-        <v>1440</v>
+        <v>1424</v>
       </c>
       <c r="F377" s="26" t="s">
-        <v>1547</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13106,77 +13110,77 @@
         <v>207</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="E378" s="25" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="F378" s="26" t="s">
-        <v>1548</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="B379" s="39"/>
       <c r="C379" s="24" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="E379" s="25" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="F379" s="26" t="s">
-        <v>1549</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A380" s="38"/>
       <c r="B380" s="39"/>
       <c r="C380" s="24" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="E380" s="25" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="F380" s="26" t="s">
-        <v>1550</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
       <c r="B381" s="39"/>
       <c r="C381" s="24" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="E381" s="25" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="F381" s="26" t="s">
-        <v>1551</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="38"/>
       <c r="B382" s="24"/>
       <c r="C382" s="24" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="D382" s="25" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="E382" s="25" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="F382" s="26" t="s">
-        <v>1552</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -13186,29 +13190,29 @@
         <v>263</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="E383" s="25" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="F383" s="26" t="s">
-        <v>1553</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="22"/>
       <c r="B384" s="23"/>
       <c r="C384" s="24" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="D384" s="25" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E384" s="25" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="F384" s="26" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13218,61 +13222,61 @@
         <v>175</v>
       </c>
       <c r="D385" s="25" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="E385" s="25" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="F385" s="26" t="s">
-        <v>1554</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="38"/>
       <c r="B386" s="39"/>
       <c r="C386" s="24" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="D386" s="25" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="E386" s="25" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="F386" s="26" t="s">
-        <v>1555</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="38"/>
       <c r="B387" s="39"/>
       <c r="C387" s="24" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="D387" s="25" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="E387" s="25" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>1556</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A388" s="38"/>
       <c r="B388" s="39"/>
       <c r="C388" s="24" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="D388" s="25" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="E388" s="25" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="F388" s="26" t="s">
-        <v>1557</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13282,13 +13286,13 @@
         <v>363</v>
       </c>
       <c r="D389" s="25" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="E389" s="25" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="F389" s="26" t="s">
-        <v>1558</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -13298,13 +13302,13 @@
         <v>367</v>
       </c>
       <c r="D390" s="25" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="E390" s="25" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
       <c r="F390" s="26" t="s">
-        <v>1559</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13314,157 +13318,157 @@
         <v>371</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="E391" s="25" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="F391" s="26" t="s">
-        <v>1560</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A392" s="38"/>
       <c r="B392" s="39"/>
       <c r="C392" s="24" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="E392" s="25" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="F392" s="26" t="s">
-        <v>1561</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A393" s="38"/>
       <c r="B393" s="39"/>
       <c r="C393" s="24" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="E393" s="25" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="F393" s="26" t="s">
-        <v>1562</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="22"/>
       <c r="B394" s="23"/>
       <c r="C394" s="24" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="E394" s="25" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="F394" s="26" t="s">
-        <v>1563</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="22"/>
       <c r="B395" s="23"/>
       <c r="C395" s="24" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="E395" s="25" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="F395" s="26" t="s">
-        <v>1564</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A396" s="22"/>
       <c r="B396" s="23"/>
       <c r="C396" s="24" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="E396" s="25" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="F396" s="26" t="s">
-        <v>1565</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="22"/>
       <c r="B397" s="23"/>
       <c r="C397" s="24" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="E397" s="25" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="F397" s="26" t="s">
-        <v>1566</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="22"/>
       <c r="B398" s="23"/>
       <c r="C398" s="24" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="E398" s="25" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="F398" s="26" t="s">
-        <v>1567</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A399" s="22"/>
       <c r="B399" s="23"/>
       <c r="C399" s="24" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="E399" s="25" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="F399" s="26" t="s">
-        <v>1568</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A400" s="22"/>
       <c r="B400" s="23"/>
       <c r="C400" s="44" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
       <c r="E400" s="25" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="F400" s="26" t="s">
-        <v>1569</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13474,109 +13478,109 @@
         <v>503</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
       <c r="E401" s="25" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="F401" s="26" t="s">
-        <v>1570</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A402" s="22"/>
       <c r="B402" s="23"/>
       <c r="C402" s="24" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="D402" s="25" t="s">
-        <v>1304</v>
+        <v>1288</v>
       </c>
       <c r="E402" s="25" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>1571</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A403" s="22"/>
       <c r="B403" s="23"/>
       <c r="C403" s="24" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="D403" s="25" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="E403" s="25" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="F403" s="26" t="s">
-        <v>1572</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A404" s="22"/>
       <c r="B404" s="23"/>
       <c r="C404" s="24" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="E404" s="25" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="F404" s="26" t="s">
-        <v>1573</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A405" s="22"/>
       <c r="B405" s="23"/>
       <c r="C405" s="24" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="E405" s="25" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>1574</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="38"/>
       <c r="B406" s="39"/>
       <c r="C406" s="24" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="F406" s="26" t="s">
-        <v>1575</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38"/>
       <c r="B407" s="39"/>
       <c r="C407" s="24" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
       <c r="F407" s="26" t="s">
-        <v>1576</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -13586,45 +13590,45 @@
         <v>602</v>
       </c>
       <c r="D408" s="25" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="E408" s="25" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="F408" s="26" t="s">
-        <v>1577</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A409" s="38"/>
       <c r="B409" s="39"/>
       <c r="C409" s="24" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="D409" s="25" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="F409" s="26" t="s">
-        <v>1578</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
       <c r="B410" s="39"/>
       <c r="C410" s="24" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="D410" s="25" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="E410" s="25" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="F410" s="26" t="s">
-        <v>1579</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -13634,45 +13638,45 @@
         <v>645</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="F411" s="26" t="s">
-        <v>1580</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="38"/>
       <c r="B412" s="39"/>
       <c r="C412" s="24" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="D412" s="25" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="E412" s="25" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="F412" s="26" t="s">
-        <v>1581</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="38"/>
       <c r="B413" s="24"/>
       <c r="C413" s="24" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="E413" s="25" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="F413" s="26" t="s">
-        <v>1582</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -13682,93 +13686,93 @@
         <v>675</v>
       </c>
       <c r="D414" s="25" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="E414" s="25" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="F414" s="26" t="s">
-        <v>1583</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A415" s="38"/>
       <c r="B415" s="39"/>
       <c r="C415" s="24" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="E415" s="25" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
       <c r="F415" s="26" t="s">
-        <v>1584</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A416" s="38"/>
       <c r="B416" s="39"/>
       <c r="C416" s="24" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="D416" s="25" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="E416" s="25" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
       <c r="F416" s="26" t="s">
-        <v>1585</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A417" s="38"/>
       <c r="B417" s="39"/>
       <c r="C417" s="24" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="E417" s="25" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
       <c r="F417" s="26" t="s">
-        <v>1586</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A418" s="38"/>
       <c r="B418" s="39"/>
       <c r="C418" s="24" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="D418" s="25" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="E418" s="25" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
       <c r="F418" s="26" t="s">
-        <v>1587</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
       <c r="B419" s="24"/>
       <c r="C419" s="24" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="E419" s="25" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="F419" s="26" t="s">
-        <v>1588</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13778,45 +13782,45 @@
         <v>747</v>
       </c>
       <c r="D420" s="25" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="E420" s="25" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="F420" s="26" t="s">
-        <v>1589</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="38"/>
       <c r="B421" s="39"/>
       <c r="C421" s="24" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="D421" s="25" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="E421" s="25" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
       <c r="F421" s="26" t="s">
-        <v>1590</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A422" s="38"/>
       <c r="B422" s="39"/>
       <c r="C422" s="24" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="D422" s="25" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="E422" s="25" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
       <c r="F422" s="26" t="s">
-        <v>1591</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -13826,212 +13830,212 @@
         <v>781</v>
       </c>
       <c r="D423" s="25" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="E423" s="25" t="s">
-        <v>1485</v>
+        <v>1469</v>
       </c>
       <c r="F423" s="26" t="s">
-        <v>1592</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="38"/>
       <c r="B424" s="39"/>
       <c r="C424" s="24" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="D424" s="25" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="E424" s="25" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
       <c r="F424" s="26" t="s">
-        <v>1593</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="38"/>
       <c r="B425" s="39"/>
       <c r="C425" s="24" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="E425" s="25" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="F425" s="26" t="s">
-        <v>1594</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="38"/>
       <c r="B426" s="39"/>
       <c r="C426" s="24" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="E426" s="25" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
       <c r="F426" s="26" t="s">
-        <v>1595</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38"/>
       <c r="B427" s="39"/>
       <c r="C427" s="24" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
       <c r="D427" s="25" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="E427" s="25" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="F427" s="26" t="s">
-        <v>1596</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="38"/>
       <c r="B428" s="39"/>
       <c r="C428" s="24" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="D428" s="25" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="E428" s="25" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
       <c r="F428" s="26" t="s">
-        <v>1597</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A429" s="38"/>
       <c r="B429" s="39"/>
       <c r="C429" s="24" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D429" s="25" t="s">
-        <v>1353</v>
+        <v>1338</v>
+      </c>
+      <c r="D429" s="60" t="s">
+        <v>1337</v>
       </c>
       <c r="E429" s="25" t="s">
-        <v>1491</v>
+        <v>2017</v>
       </c>
       <c r="F429" s="26" t="s">
-        <v>1598</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A430" s="38"/>
       <c r="B430" s="39"/>
       <c r="C430" s="24" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="D430" s="25" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="E430" s="25" t="s">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="F430" s="26" t="s">
-        <v>1599</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="38"/>
       <c r="B431" s="39"/>
       <c r="C431" s="24" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
       <c r="D431" s="25" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="E431" s="25" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
       <c r="F431" s="26" t="s">
-        <v>1600</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A432" s="38"/>
       <c r="B432" s="39"/>
       <c r="C432" s="24" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="D432" s="25" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="E432" s="25" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
       <c r="F432" s="26" t="s">
-        <v>1601</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="38"/>
       <c r="B433" s="39"/>
       <c r="C433" s="24" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="D433" s="25" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="E433" s="25" t="s">
-        <v>1495</v>
+        <v>1478</v>
       </c>
       <c r="F433" s="26" t="s">
-        <v>1602</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A434" s="38"/>
       <c r="B434" s="39"/>
       <c r="C434" s="24" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
       <c r="D434" s="25" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
       <c r="E434" s="25" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
       <c r="F434" s="26" t="s">
-        <v>1603</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A435" s="38"/>
       <c r="B435" s="39"/>
       <c r="C435" s="24" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="D435" s="25" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
       <c r="E435" s="25" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
       <c r="F435" s="26" t="s">
-        <v>1604</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="22"/>
       <c r="B436" s="23"/>
       <c r="C436" s="24" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
       <c r="D436" s="25" t="s">
         <v>276</v>
@@ -14047,16 +14051,16 @@
       <c r="A437" s="38"/>
       <c r="B437" s="39"/>
       <c r="C437" s="24" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="D437" s="25" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="E437" s="25" t="s">
-        <v>1498</v>
+        <v>1481</v>
       </c>
       <c r="F437" s="26" t="s">
-        <v>1605</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -14066,29 +14070,29 @@
         <v>333</v>
       </c>
       <c r="D438" s="25" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="E438" s="25" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
       <c r="F438" s="26" t="s">
-        <v>1606</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="38"/>
       <c r="B439" s="39"/>
       <c r="C439" s="24" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="E439" s="25" t="s">
-        <v>1500</v>
+        <v>1483</v>
       </c>
       <c r="F439" s="26" t="s">
-        <v>1607</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14098,13 +14102,13 @@
         <v>1079</v>
       </c>
       <c r="D440" s="25" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="E440" s="25" t="s">
-        <v>1501</v>
+        <v>1484</v>
       </c>
       <c r="F440" s="26" t="s">
-        <v>1608</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14114,13 +14118,13 @@
         <v>1083</v>
       </c>
       <c r="D441" s="25" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="E441" s="25" t="s">
-        <v>1502</v>
+        <v>1485</v>
       </c>
       <c r="F441" s="26" t="s">
-        <v>1609</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14130,13 +14134,13 @@
         <v>1089</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
       <c r="E442" s="25" t="s">
-        <v>1503</v>
+        <v>1486</v>
       </c>
       <c r="F442" s="26" t="s">
-        <v>1610</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14146,13 +14150,13 @@
         <v>1093</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
       <c r="E443" s="25" t="s">
-        <v>1503</v>
+        <v>1486</v>
       </c>
       <c r="F443" s="26" t="s">
-        <v>1610</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14162,13 +14166,13 @@
         <v>1099</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="E444" s="25" t="s">
-        <v>1504</v>
+        <v>1487</v>
       </c>
       <c r="F444" s="26" t="s">
-        <v>1611</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14178,29 +14182,29 @@
         <v>1103</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="E445" s="25" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
       <c r="F445" s="26" t="s">
-        <v>1612</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="38"/>
       <c r="B446" s="24"/>
       <c r="C446" s="24" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="E446" s="25" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
       <c r="F446" s="26" t="s">
-        <v>1613</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -14210,29 +14214,29 @@
         <v>1117</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="E447" s="25" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="F447" s="26" t="s">
-        <v>1614</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="38"/>
       <c r="B448" s="24"/>
       <c r="C448" s="24" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="E448" s="25" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="F448" s="26" t="s">
-        <v>1615</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -14242,29 +14246,29 @@
         <v>1131</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="E449" s="25" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
       <c r="F449" s="26" t="s">
-        <v>1616</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="38"/>
       <c r="B450" s="24"/>
       <c r="C450" s="24" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="E450" s="25" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="F450" s="26" t="s">
-        <v>1617</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -14274,45 +14278,45 @@
         <v>1145</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="E451" s="25" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
       <c r="F451" s="26" t="s">
-        <v>1618</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="38"/>
       <c r="B452" s="39"/>
       <c r="C452" s="24" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="E452" s="25" t="s">
-        <v>1512</v>
+        <v>1495</v>
       </c>
       <c r="F452" s="26" t="s">
-        <v>1619</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A453" s="38"/>
       <c r="B453" s="24"/>
       <c r="C453" s="24" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="E453" s="25" t="s">
-        <v>1513</v>
+        <v>1496</v>
       </c>
       <c r="F453" s="26" t="s">
-        <v>1620</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14322,61 +14326,61 @@
         <v>1191</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="E454" s="25" t="s">
-        <v>1513</v>
+        <v>1496</v>
       </c>
       <c r="F454" s="26" t="s">
-        <v>1620</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" s="38"/>
       <c r="B455" s="39"/>
       <c r="C455" s="24" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
       <c r="E455" s="25" t="s">
-        <v>1514</v>
+        <v>1497</v>
       </c>
       <c r="F455" s="26" t="s">
-        <v>1621</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A456" s="38"/>
       <c r="B456" s="39"/>
       <c r="C456" s="24" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="D456" s="25" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="E456" s="25" t="s">
-        <v>1515</v>
+        <v>1498</v>
       </c>
       <c r="F456" s="26" t="s">
-        <v>1622</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A457" s="38"/>
       <c r="B457" s="39"/>
       <c r="C457" s="24" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="E457" s="25" t="s">
-        <v>1516</v>
+        <v>1499</v>
       </c>
       <c r="F457" s="26" t="s">
-        <v>1623</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -14386,205 +14390,205 @@
         <v>1272</v>
       </c>
       <c r="D458" s="25" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
       <c r="E458" s="25" t="s">
-        <v>1517</v>
+        <v>1500</v>
       </c>
       <c r="F458" s="26" t="s">
-        <v>1624</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A459" s="38"/>
       <c r="B459" s="39"/>
       <c r="C459" s="24" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="D459" s="25" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
       <c r="E459" s="25" t="s">
-        <v>1518</v>
+        <v>1501</v>
       </c>
       <c r="F459" s="26" t="s">
-        <v>1625</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="38"/>
       <c r="B460" s="39"/>
       <c r="C460" s="24" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="E460" s="25" t="s">
-        <v>1519</v>
+        <v>1502</v>
       </c>
       <c r="F460" s="26" t="s">
-        <v>1626</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A461" s="38"/>
       <c r="B461" s="39"/>
       <c r="C461" s="24" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="E461" s="25" t="s">
-        <v>1520</v>
+        <v>1503</v>
       </c>
       <c r="F461" s="26" t="s">
-        <v>1627</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="38"/>
       <c r="B462" s="39"/>
       <c r="C462" s="24" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="E462" s="25" t="s">
-        <v>1521</v>
+        <v>1504</v>
       </c>
       <c r="F462" s="26" t="s">
-        <v>1628</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" s="38"/>
       <c r="B463" s="39"/>
       <c r="C463" s="24" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="D463" s="25" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="E463" s="25" t="s">
-        <v>1522</v>
+        <v>1505</v>
       </c>
       <c r="F463" s="26" t="s">
-        <v>1629</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="38"/>
       <c r="B464" s="39"/>
       <c r="C464" s="24" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
       <c r="D464" s="25" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
       <c r="E464" s="25" t="s">
-        <v>1523</v>
+        <v>1506</v>
       </c>
       <c r="F464" s="26" t="s">
-        <v>1630</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="38"/>
       <c r="B465" s="39"/>
       <c r="C465" s="24" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="D465" s="25" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="E465" s="25" t="s">
-        <v>1524</v>
+        <v>1507</v>
       </c>
       <c r="F465" s="26" t="s">
-        <v>1631</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" s="38"/>
       <c r="B466" s="39"/>
       <c r="C466" s="24" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="D466" s="25" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="E466" s="25" t="s">
-        <v>1525</v>
+        <v>1508</v>
       </c>
       <c r="F466" s="26" t="s">
-        <v>1632</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A467" s="38"/>
       <c r="B467" s="39"/>
       <c r="C467" s="24" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D467" s="25" t="s">
-        <v>1353</v>
+        <v>1393</v>
+      </c>
+      <c r="D467" s="60" t="s">
+        <v>1337</v>
       </c>
       <c r="E467" s="25" t="s">
-        <v>1526</v>
+        <v>2017</v>
       </c>
       <c r="F467" s="26" t="s">
-        <v>1633</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A468" s="38"/>
       <c r="B468" s="39"/>
       <c r="C468" s="24" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="D468" s="25" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="E468" s="25" t="s">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="F468" s="26" t="s">
-        <v>1599</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A469" s="38"/>
       <c r="B469" s="39"/>
       <c r="C469" s="24" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="D469" s="25" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="E469" s="25" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
       <c r="F469" s="26" t="s">
-        <v>1600</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A470" s="38"/>
       <c r="B470" s="39"/>
       <c r="C470" s="24" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="D470" s="25" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="E470" s="25" t="s">
-        <v>1527</v>
+        <v>1509</v>
       </c>
       <c r="F470" s="26" t="s">
-        <v>1634</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -14594,45 +14598,45 @@
         <v>1471</v>
       </c>
       <c r="D471" s="25" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="E471" s="25" t="s">
-        <v>1528</v>
+        <v>1510</v>
       </c>
       <c r="F471" s="26" t="s">
-        <v>1635</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" s="38"/>
       <c r="B472" s="39"/>
       <c r="C472" s="24" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="D472" s="25" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="E472" s="25" t="s">
-        <v>1529</v>
+        <v>1511</v>
       </c>
       <c r="F472" s="26" t="s">
-        <v>1636</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="38"/>
       <c r="B473" s="39"/>
       <c r="C473" s="24" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="D473" s="25" t="s">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="E473" s="25" t="s">
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="F473" s="26" t="s">
-        <v>1637</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -14642,195 +14646,195 @@
         <v>1507</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="E474" s="25" t="s">
-        <v>1531</v>
+        <v>1513</v>
       </c>
       <c r="F474" s="26" t="s">
-        <v>1638</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="38"/>
       <c r="B475" s="39"/>
       <c r="C475" s="24" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="D475" s="25" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="E475" s="25" t="s">
-        <v>1532</v>
+        <v>1514</v>
       </c>
       <c r="F475" s="26" t="s">
-        <v>1639</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A476" s="38"/>
       <c r="B476" s="39"/>
       <c r="C476" s="24" t="s">
-        <v>1422</v>
+        <v>1406</v>
       </c>
       <c r="D476" s="25" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
       <c r="E476" s="25" t="s">
-        <v>1533</v>
+        <v>1515</v>
       </c>
       <c r="F476" s="26" t="s">
-        <v>1640</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A477" s="38"/>
       <c r="B477" s="39"/>
       <c r="C477" s="24" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="D477" s="25" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="E477" s="25" t="s">
-        <v>1534</v>
+        <v>1516</v>
       </c>
       <c r="F477" s="26" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A478" s="38"/>
       <c r="B478" s="39"/>
       <c r="C478" s="24" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="D478" s="25" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="E478" s="25" t="s">
-        <v>1535</v>
+        <v>1517</v>
       </c>
       <c r="F478" s="26" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A479" s="38"/>
       <c r="B479" s="39"/>
       <c r="C479" s="24" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="D479" s="25" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="E479" s="25" t="s">
-        <v>1536</v>
+        <v>1518</v>
       </c>
       <c r="F479" s="26" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="51"/>
       <c r="B480" s="52"/>
       <c r="C480" s="29" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="D480" s="30" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="E480" s="30" t="s">
-        <v>1537</v>
+        <v>1519</v>
       </c>
       <c r="F480" s="31" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A481" s="36" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
       <c r="B481" s="37" t="s">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
       <c r="D481" s="20" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
       <c r="E481" s="20" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
       <c r="F481" s="21" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A482" s="38"/>
       <c r="B482" s="39"/>
       <c r="C482" s="24" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="D482" s="25" t="s">
-        <v>1648</v>
+        <v>1628</v>
       </c>
       <c r="E482" s="25" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="F482" s="26" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="38"/>
       <c r="B483" s="39"/>
       <c r="C483" s="24" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="D483" s="25" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="E483" s="25" t="s">
-        <v>1498</v>
+        <v>1481</v>
       </c>
       <c r="F483" s="26" t="s">
-        <v>1605</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="47"/>
       <c r="B484" s="48"/>
       <c r="C484" s="16" t="s">
-        <v>1651</v>
+        <v>1631</v>
       </c>
       <c r="D484" s="17" t="s">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="E484" s="17" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
       <c r="F484" s="42" t="s">
-        <v>1606</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A485" s="38"/>
       <c r="B485" s="39" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
       <c r="C485" s="40">
         <v>22</v>
       </c>
       <c r="D485" s="25" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="E485" s="25" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="F485" s="26" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -14840,13 +14844,13 @@
         <v>26</v>
       </c>
       <c r="D486" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E486" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F486" s="26" t="s">
         <v>1032</v>
-      </c>
-      <c r="E486" s="25" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F486" s="26" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -14856,29 +14860,29 @@
         <v>31</v>
       </c>
       <c r="D487" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E487" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F487" s="26" t="s">
         <v>1033</v>
-      </c>
-      <c r="E487" s="25" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F487" s="26" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="38"/>
       <c r="B488" s="39"/>
       <c r="C488" s="24" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
       <c r="D488" s="25" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
       <c r="E488" s="25" t="s">
-        <v>1662</v>
+        <v>1642</v>
       </c>
       <c r="F488" s="26" t="s">
-        <v>1665</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -14888,115 +14892,115 @@
         <v>64</v>
       </c>
       <c r="D489" s="25" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="E489" s="25" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="F489" s="26" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A490" s="38"/>
       <c r="B490" s="39"/>
       <c r="C490" s="24" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="D490" s="25" t="s">
-        <v>1659</v>
+        <v>1639</v>
       </c>
       <c r="E490" s="25" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="F490" s="26" t="s">
-        <v>1666</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A491" s="47"/>
       <c r="B491" s="48"/>
       <c r="C491" s="16" t="s">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="D491" s="17" t="s">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="E491" s="17" t="s">
-        <v>1664</v>
+        <v>1644</v>
       </c>
       <c r="F491" s="42" t="s">
-        <v>1667</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A492" s="54" t="s">
-        <v>1668</v>
+        <v>1648</v>
       </c>
       <c r="B492" s="39"/>
       <c r="C492" s="24" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="D492" s="25" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="E492" s="25" t="s">
-        <v>1673</v>
+        <v>1653</v>
       </c>
       <c r="F492" s="26" t="s">
-        <v>1676</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="38"/>
       <c r="B493" s="39"/>
       <c r="C493" s="24" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="D493" s="25" t="s">
-        <v>1670</v>
+        <v>1650</v>
       </c>
       <c r="E493" s="25" t="s">
-        <v>1674</v>
+        <v>1654</v>
       </c>
       <c r="F493" s="26" t="s">
-        <v>1677</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A494" s="47"/>
       <c r="B494" s="48"/>
       <c r="C494" s="16" t="s">
-        <v>1672</v>
+        <v>1652</v>
       </c>
       <c r="D494" s="17" t="s">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="E494" s="17" t="s">
-        <v>1675</v>
+        <v>1655</v>
       </c>
       <c r="F494" s="42" t="s">
-        <v>1678</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A495" s="58" t="s">
-        <v>1679</v>
+        <v>1659</v>
       </c>
       <c r="B495" s="24" t="s">
-        <v>1683</v>
+        <v>1663</v>
       </c>
       <c r="C495" s="24">
         <v>11</v>
       </c>
       <c r="D495" s="25" t="s">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="E495" s="25" t="s">
-        <v>1684</v>
+        <v>1664</v>
       </c>
       <c r="F495" s="26" t="s">
-        <v>1687</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -15006,13 +15010,13 @@
         <v>15</v>
       </c>
       <c r="D496" s="25" t="s">
-        <v>1681</v>
+        <v>1661</v>
       </c>
       <c r="E496" s="25" t="s">
-        <v>1685</v>
+        <v>1665</v>
       </c>
       <c r="F496" s="26" t="s">
-        <v>1688</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -15022,135 +15026,135 @@
         <v>31</v>
       </c>
       <c r="D497" s="17" t="s">
-        <v>1682</v>
+        <v>1662</v>
       </c>
       <c r="E497" s="17" t="s">
-        <v>1686</v>
+        <v>1666</v>
       </c>
       <c r="F497" s="42" t="s">
-        <v>1689</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A498" s="38"/>
       <c r="B498" s="39" t="s">
-        <v>1690</v>
+        <v>1670</v>
       </c>
       <c r="C498" s="24" t="s">
         <v>71</v>
       </c>
       <c r="D498" s="25" t="s">
-        <v>1691</v>
+        <v>1671</v>
       </c>
       <c r="E498" s="25" t="s">
-        <v>1696</v>
+        <v>1676</v>
       </c>
       <c r="F498" s="26" t="s">
-        <v>1699</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A499" s="38"/>
       <c r="B499" s="39"/>
       <c r="C499" s="24" t="s">
-        <v>1694</v>
+        <v>1674</v>
       </c>
       <c r="D499" s="25" t="s">
-        <v>1692</v>
+        <v>1672</v>
       </c>
       <c r="E499" s="25" t="s">
-        <v>1697</v>
+        <v>1677</v>
       </c>
       <c r="F499" s="26" t="s">
-        <v>1700</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="47"/>
       <c r="B500" s="48"/>
       <c r="C500" s="16" t="s">
-        <v>1695</v>
+        <v>1675</v>
       </c>
       <c r="D500" s="17" t="s">
-        <v>1693</v>
+        <v>1673</v>
       </c>
       <c r="E500" s="17" t="s">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="F500" s="42" t="s">
-        <v>1701</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A501" s="54" t="s">
-        <v>1702</v>
+        <v>1682</v>
       </c>
       <c r="B501" s="39" t="s">
-        <v>1703</v>
+        <v>1683</v>
       </c>
       <c r="C501" s="24" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="D501" s="25" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="E501" s="25" t="s">
-        <v>1705</v>
+        <v>1685</v>
       </c>
       <c r="F501" s="26" t="s">
-        <v>1706</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="38"/>
       <c r="B502" s="39"/>
       <c r="C502" s="24" t="s">
-        <v>1704</v>
+        <v>1684</v>
       </c>
       <c r="D502" s="25" t="s">
-        <v>1670</v>
+        <v>1650</v>
       </c>
       <c r="E502" s="25" t="s">
-        <v>1674</v>
+        <v>1654</v>
       </c>
       <c r="F502" s="26" t="s">
-        <v>1677</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="51"/>
       <c r="B503" s="52"/>
       <c r="C503" s="29" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D503" s="30" t="s">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="E503" s="30" t="s">
-        <v>1675</v>
+        <v>1655</v>
       </c>
       <c r="F503" s="31" t="s">
-        <v>1678</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A504" s="32" t="s">
-        <v>1733</v>
+        <v>1713</v>
       </c>
       <c r="B504" s="19" t="s">
-        <v>1707</v>
+        <v>1687</v>
       </c>
       <c r="C504" s="19">
         <v>5</v>
       </c>
       <c r="D504" s="20" t="s">
-        <v>1708</v>
+        <v>1688</v>
       </c>
       <c r="E504" s="20" t="s">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="F504" s="21" t="s">
-        <v>1758</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -15162,13 +15166,13 @@
         <v>27</v>
       </c>
       <c r="D505" s="25" t="s">
-        <v>1709</v>
+        <v>1689</v>
       </c>
       <c r="E505" s="25" t="s">
-        <v>1735</v>
+        <v>1715</v>
       </c>
       <c r="F505" s="26" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -15178,13 +15182,13 @@
         <v>30</v>
       </c>
       <c r="D506" s="25" t="s">
-        <v>1710</v>
+        <v>1690</v>
       </c>
       <c r="E506" s="25" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="F506" s="26" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15194,13 +15198,13 @@
         <v>33</v>
       </c>
       <c r="D507" s="25" t="s">
-        <v>1711</v>
+        <v>1691</v>
       </c>
       <c r="E507" s="25" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="F507" s="26" t="s">
-        <v>1761</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15210,13 +15214,13 @@
         <v>43</v>
       </c>
       <c r="D508" s="25" t="s">
-        <v>1712</v>
+        <v>1692</v>
       </c>
       <c r="E508" s="25" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="F508" s="26" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15226,13 +15230,13 @@
         <v>46</v>
       </c>
       <c r="D509" s="25" t="s">
-        <v>1713</v>
+        <v>1693</v>
       </c>
       <c r="E509" s="25" t="s">
-        <v>1739</v>
+        <v>1719</v>
       </c>
       <c r="F509" s="26" t="s">
-        <v>1763</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -15242,13 +15246,13 @@
         <v>54</v>
       </c>
       <c r="D510" s="25" t="s">
-        <v>1714</v>
+        <v>1694</v>
       </c>
       <c r="E510" s="25" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="F510" s="26" t="s">
-        <v>1764</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15258,13 +15262,13 @@
         <v>57</v>
       </c>
       <c r="D511" s="25" t="s">
-        <v>1715</v>
+        <v>1695</v>
       </c>
       <c r="E511" s="25" t="s">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="F511" s="26" t="s">
-        <v>1765</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15274,13 +15278,13 @@
         <v>60</v>
       </c>
       <c r="D512" s="25" t="s">
-        <v>1716</v>
+        <v>1696</v>
       </c>
       <c r="E512" s="25" t="s">
-        <v>1742</v>
+        <v>1722</v>
       </c>
       <c r="F512" s="26" t="s">
-        <v>1766</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -15290,31 +15294,31 @@
         <v>63</v>
       </c>
       <c r="D513" s="25" t="s">
-        <v>1717</v>
+        <v>1697</v>
       </c>
       <c r="E513" s="25" t="s">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="F513" s="26" t="s">
-        <v>1767</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B514" s="24"/>
       <c r="C514" s="24">
         <v>72</v>
       </c>
       <c r="D514" s="25" t="s">
-        <v>1718</v>
+        <v>1698</v>
       </c>
       <c r="E514" s="25" t="s">
-        <v>1744</v>
+        <v>1724</v>
       </c>
       <c r="F514" s="26" t="s">
-        <v>1768</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -15326,13 +15330,13 @@
         <v>85</v>
       </c>
       <c r="D515" s="25" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="E515" s="25" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="F515" s="26" t="s">
-        <v>1575</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -15342,31 +15346,31 @@
         <v>92</v>
       </c>
       <c r="D516" s="25" t="s">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="E516" s="25" t="s">
-        <v>1745</v>
+        <v>1725</v>
       </c>
       <c r="F516" s="26" t="s">
-        <v>1769</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A517" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B517" s="24"/>
       <c r="C517" s="24">
         <v>100</v>
       </c>
       <c r="D517" s="25" t="s">
-        <v>1721</v>
+        <v>1701</v>
       </c>
       <c r="E517" s="25" t="s">
-        <v>1746</v>
+        <v>1726</v>
       </c>
       <c r="F517" s="26" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -15376,13 +15380,13 @@
         <v>103</v>
       </c>
       <c r="D518" s="25" t="s">
-        <v>1722</v>
+        <v>1702</v>
       </c>
       <c r="E518" s="25" t="s">
-        <v>1747</v>
+        <v>1727</v>
       </c>
       <c r="F518" s="26" t="s">
-        <v>1771</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15392,13 +15396,13 @@
         <v>106</v>
       </c>
       <c r="D519" s="25" t="s">
-        <v>1723</v>
+        <v>1703</v>
       </c>
       <c r="E519" s="25" t="s">
-        <v>1748</v>
+        <v>1728</v>
       </c>
       <c r="F519" s="26" t="s">
-        <v>1772</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -15410,31 +15414,31 @@
         <v>111</v>
       </c>
       <c r="D520" s="25" t="s">
-        <v>1724</v>
+        <v>1704</v>
       </c>
       <c r="E520" s="25" t="s">
-        <v>1749</v>
+        <v>1729</v>
       </c>
       <c r="F520" s="26" t="s">
-        <v>1773</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B521" s="24"/>
       <c r="C521" s="24">
         <v>116</v>
       </c>
       <c r="D521" s="25" t="s">
-        <v>1725</v>
+        <v>1705</v>
       </c>
       <c r="E521" s="25" t="s">
-        <v>1782</v>
+        <v>1762</v>
       </c>
       <c r="F521" s="26" t="s">
-        <v>1783</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -15444,13 +15448,13 @@
         <v>119</v>
       </c>
       <c r="D522" s="25" t="s">
-        <v>1726</v>
+        <v>1706</v>
       </c>
       <c r="E522" s="25" t="s">
-        <v>1750</v>
+        <v>1730</v>
       </c>
       <c r="F522" s="26" t="s">
-        <v>1774</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15462,31 +15466,31 @@
         <v>127</v>
       </c>
       <c r="D523" s="25" t="s">
-        <v>1727</v>
+        <v>1707</v>
       </c>
       <c r="E523" s="25" t="s">
-        <v>1751</v>
+        <v>1731</v>
       </c>
       <c r="F523" s="26" t="s">
-        <v>1775</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B524" s="24"/>
       <c r="C524" s="24">
         <v>133</v>
       </c>
       <c r="D524" s="25" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="E524" s="25" t="s">
-        <v>1752</v>
+        <v>1732</v>
       </c>
       <c r="F524" s="26" t="s">
-        <v>1776</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -15496,13 +15500,13 @@
         <v>136</v>
       </c>
       <c r="D525" s="25" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="E525" s="25" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="F525" s="26" t="s">
-        <v>1777</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -15512,13 +15516,13 @@
         <v>139</v>
       </c>
       <c r="D526" s="25" t="s">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="E526" s="25" t="s">
-        <v>1754</v>
+        <v>1734</v>
       </c>
       <c r="F526" s="26" t="s">
-        <v>1778</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -15528,13 +15532,13 @@
         <v>146</v>
       </c>
       <c r="D527" s="25" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="E527" s="25" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="F527" s="26" t="s">
-        <v>1779</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15544,13 +15548,13 @@
         <v>151</v>
       </c>
       <c r="D528" s="25" t="s">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="E528" s="25" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="F528" s="26" t="s">
-        <v>1780</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15565,30 +15569,30 @@
         <v>416</v>
       </c>
       <c r="E529" s="30" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="F529" s="31" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A530" s="36" t="s">
-        <v>1784</v>
+        <v>1764</v>
       </c>
       <c r="B530" s="37" t="s">
-        <v>1786</v>
+        <v>1766</v>
       </c>
       <c r="C530" s="19" t="s">
-        <v>1787</v>
+        <v>1767</v>
       </c>
       <c r="D530" s="20" t="s">
-        <v>1785</v>
+        <v>1765</v>
       </c>
       <c r="E530" s="20" t="s">
-        <v>1813</v>
+        <v>1793</v>
       </c>
       <c r="F530" s="21" t="s">
-        <v>1835</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -15600,29 +15604,29 @@
         <v>61</v>
       </c>
       <c r="D531" s="25" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="E531" s="25" t="s">
-        <v>1814</v>
+        <v>1794</v>
       </c>
       <c r="F531" s="26" t="s">
-        <v>1836</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A532" s="38"/>
       <c r="B532" s="39"/>
       <c r="C532" s="24" t="s">
-        <v>1672</v>
+        <v>1652</v>
       </c>
       <c r="D532" s="25" t="s">
-        <v>1789</v>
+        <v>1769</v>
       </c>
       <c r="E532" s="25" t="s">
-        <v>1815</v>
+        <v>1795</v>
       </c>
       <c r="F532" s="26" t="s">
-        <v>1837</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -15634,29 +15638,29 @@
         <v>95</v>
       </c>
       <c r="D533" s="25" t="s">
-        <v>1790</v>
+        <v>1770</v>
       </c>
       <c r="E533" s="25" t="s">
-        <v>1816</v>
+        <v>1796</v>
       </c>
       <c r="F533" s="26" t="s">
-        <v>1838</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="38"/>
       <c r="B534" s="39"/>
       <c r="C534" s="24" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
       <c r="D534" s="25" t="s">
-        <v>1791</v>
+        <v>1771</v>
       </c>
       <c r="E534" s="25" t="s">
-        <v>1817</v>
+        <v>1797</v>
       </c>
       <c r="F534" s="26" t="s">
-        <v>1839</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -15668,29 +15672,29 @@
         <v>117</v>
       </c>
       <c r="D535" s="25" t="s">
-        <v>1792</v>
+        <v>1772</v>
       </c>
       <c r="E535" s="25" t="s">
-        <v>1818</v>
+        <v>1798</v>
       </c>
       <c r="F535" s="26" t="s">
-        <v>1840</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="38"/>
       <c r="B536" s="39"/>
       <c r="C536" s="24" t="s">
-        <v>1794</v>
+        <v>1774</v>
       </c>
       <c r="D536" s="25" t="s">
-        <v>1793</v>
+        <v>1773</v>
       </c>
       <c r="E536" s="25" t="s">
-        <v>1819</v>
+        <v>1799</v>
       </c>
       <c r="F536" s="26" t="s">
-        <v>1841</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -15702,79 +15706,79 @@
         <v>155</v>
       </c>
       <c r="D537" s="25" t="s">
-        <v>1795</v>
+        <v>1775</v>
       </c>
       <c r="E537" s="25" t="s">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="F537" s="26" t="s">
-        <v>1842</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="38"/>
       <c r="B538" s="39"/>
       <c r="C538" s="24" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D538" s="25" t="s">
-        <v>1796</v>
+        <v>1776</v>
       </c>
       <c r="E538" s="25" t="s">
-        <v>1821</v>
+        <v>1801</v>
       </c>
       <c r="F538" s="26" t="s">
-        <v>1843</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="38"/>
       <c r="B539" s="39"/>
       <c r="C539" s="24" t="s">
-        <v>1798</v>
+        <v>1778</v>
       </c>
       <c r="D539" s="25" t="s">
-        <v>1797</v>
+        <v>1777</v>
       </c>
       <c r="E539" s="25" t="s">
-        <v>1822</v>
+        <v>1802</v>
       </c>
       <c r="F539" s="26" t="s">
-        <v>1844</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="38"/>
       <c r="B540" s="39"/>
       <c r="C540" s="24" t="s">
-        <v>1800</v>
+        <v>1780</v>
       </c>
       <c r="D540" s="25" t="s">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="E540" s="25" t="s">
-        <v>1823</v>
+        <v>1803</v>
       </c>
       <c r="F540" s="26" t="s">
-        <v>1845</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B541" s="24"/>
       <c r="C541" s="24">
         <v>268</v>
       </c>
       <c r="D541" s="25" t="s">
-        <v>1801</v>
+        <v>1781</v>
       </c>
       <c r="E541" s="25" t="s">
-        <v>1824</v>
+        <v>1804</v>
       </c>
       <c r="F541" s="26" t="s">
-        <v>1846</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15784,13 +15788,13 @@
         <v>271</v>
       </c>
       <c r="D542" s="25" t="s">
-        <v>1802</v>
+        <v>1782</v>
       </c>
       <c r="E542" s="25" t="s">
-        <v>1825</v>
+        <v>1805</v>
       </c>
       <c r="F542" s="26" t="s">
-        <v>1847</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -15800,13 +15804,13 @@
         <v>274</v>
       </c>
       <c r="D543" s="25" t="s">
-        <v>1803</v>
+        <v>1783</v>
       </c>
       <c r="E543" s="25" t="s">
-        <v>1826</v>
+        <v>1806</v>
       </c>
       <c r="F543" s="26" t="s">
-        <v>1848</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -15816,47 +15820,47 @@
         <v>277</v>
       </c>
       <c r="D544" s="25" t="s">
-        <v>1804</v>
+        <v>1784</v>
       </c>
       <c r="E544" s="25" t="s">
-        <v>1827</v>
+        <v>1807</v>
       </c>
       <c r="F544" s="26" t="s">
-        <v>1849</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="38"/>
       <c r="B545" s="39"/>
       <c r="C545" s="24" t="s">
-        <v>1806</v>
+        <v>1786</v>
       </c>
       <c r="D545" s="25" t="s">
-        <v>1805</v>
+        <v>1785</v>
       </c>
       <c r="E545" s="25" t="s">
-        <v>1828</v>
+        <v>1808</v>
       </c>
       <c r="F545" s="26" t="s">
-        <v>1850</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B546" s="24"/>
       <c r="C546" s="24">
         <v>298</v>
       </c>
       <c r="D546" s="25" t="s">
-        <v>1807</v>
+        <v>1787</v>
       </c>
       <c r="E546" s="25" t="s">
-        <v>1829</v>
+        <v>1809</v>
       </c>
       <c r="F546" s="26" t="s">
-        <v>1851</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
@@ -15866,13 +15870,13 @@
         <v>301</v>
       </c>
       <c r="D547" s="25" t="s">
-        <v>1808</v>
+        <v>1788</v>
       </c>
       <c r="E547" s="25" t="s">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="F547" s="26" t="s">
-        <v>1852</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15882,13 +15886,13 @@
         <v>304</v>
       </c>
       <c r="D548" s="25" t="s">
-        <v>1809</v>
+        <v>1789</v>
       </c>
       <c r="E548" s="25" t="s">
-        <v>1831</v>
+        <v>1811</v>
       </c>
       <c r="F548" s="26" t="s">
-        <v>1853</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -15898,13 +15902,13 @@
         <v>323</v>
       </c>
       <c r="D549" s="25" t="s">
-        <v>1810</v>
+        <v>1790</v>
       </c>
       <c r="E549" s="25" t="s">
-        <v>1832</v>
+        <v>1812</v>
       </c>
       <c r="F549" s="26" t="s">
-        <v>1854</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15916,69 +15920,69 @@
         <v>329</v>
       </c>
       <c r="D550" s="25" t="s">
-        <v>1811</v>
+        <v>1791</v>
       </c>
       <c r="E550" s="25" t="s">
-        <v>1833</v>
+        <v>1813</v>
       </c>
       <c r="F550" s="26" t="s">
-        <v>1855</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A551" s="50" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B551" s="16"/>
       <c r="C551" s="16">
         <v>334</v>
       </c>
       <c r="D551" s="17" t="s">
-        <v>1812</v>
+        <v>1792</v>
       </c>
       <c r="E551" s="17" t="s">
-        <v>1834</v>
+        <v>1814</v>
       </c>
       <c r="F551" s="42" t="s">
-        <v>1856</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A552" s="49" t="s">
-        <v>1857</v>
+        <v>1837</v>
       </c>
       <c r="B552" s="24" t="s">
-        <v>1859</v>
+        <v>1839</v>
       </c>
       <c r="C552" s="24">
         <v>28</v>
       </c>
       <c r="D552" s="25" t="s">
-        <v>1858</v>
+        <v>1838</v>
       </c>
       <c r="E552" s="25" t="s">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="F552" s="26" t="s">
-        <v>1863</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A553" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B553" s="24"/>
       <c r="C553" s="24">
         <v>31</v>
       </c>
       <c r="D553" s="25" t="s">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="E553" s="25" t="s">
-        <v>1862</v>
+        <v>1842</v>
       </c>
       <c r="F553" s="26" t="s">
-        <v>1864</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15988,85 +15992,85 @@
         <v>34</v>
       </c>
       <c r="D554" s="25" t="s">
-        <v>1812</v>
+        <v>1792</v>
       </c>
       <c r="E554" s="25" t="s">
-        <v>1834</v>
+        <v>1814</v>
       </c>
       <c r="F554" s="26" t="s">
-        <v>1856</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A555" s="32" t="s">
-        <v>1865</v>
+        <v>1845</v>
       </c>
       <c r="B555" s="19" t="s">
-        <v>1866</v>
+        <v>1846</v>
       </c>
       <c r="C555" s="19">
         <v>26</v>
       </c>
       <c r="D555" s="20" t="s">
-        <v>1867</v>
+        <v>1847</v>
       </c>
       <c r="E555" s="20" t="s">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="F555" s="21" t="s">
-        <v>1980</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B556" s="24"/>
       <c r="C556" s="24">
         <v>29</v>
       </c>
       <c r="D556" s="25" t="s">
-        <v>1868</v>
+        <v>1848</v>
       </c>
       <c r="E556" s="25" t="s">
-        <v>1931</v>
+        <v>1911</v>
       </c>
       <c r="F556" s="26" t="s">
-        <v>1981</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="38"/>
       <c r="B557" s="39"/>
       <c r="C557" s="24" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="D557" s="25" t="s">
-        <v>1869</v>
+        <v>1849</v>
       </c>
       <c r="E557" s="25" t="s">
-        <v>1932</v>
+        <v>1912</v>
       </c>
       <c r="F557" s="26" t="s">
-        <v>1982</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="33" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="B558" s="24"/>
       <c r="C558" s="24">
         <v>71</v>
       </c>
       <c r="D558" s="25" t="s">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="E558" s="25" t="s">
-        <v>1933</v>
+        <v>1913</v>
       </c>
       <c r="F558" s="26" t="s">
-        <v>1983</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -16076,13 +16080,13 @@
         <v>99</v>
       </c>
       <c r="D559" s="25" t="s">
-        <v>1871</v>
+        <v>1851</v>
       </c>
       <c r="E559" s="25" t="s">
-        <v>1934</v>
+        <v>1914</v>
       </c>
       <c r="F559" s="26" t="s">
-        <v>1984</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -16092,13 +16096,13 @@
         <v>139</v>
       </c>
       <c r="D560" s="25" t="s">
-        <v>1871</v>
+        <v>1851</v>
       </c>
       <c r="E560" s="25" t="s">
-        <v>1934</v>
+        <v>1914</v>
       </c>
       <c r="F560" s="26" t="s">
-        <v>1984</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -16108,29 +16112,29 @@
         <v>142</v>
       </c>
       <c r="D561" s="25" t="s">
-        <v>1872</v>
+        <v>1852</v>
       </c>
       <c r="E561" s="25" t="s">
-        <v>1935</v>
+        <v>1915</v>
       </c>
       <c r="F561" s="26" t="s">
-        <v>1985</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A562" s="38"/>
       <c r="B562" s="39"/>
       <c r="C562" s="24" t="s">
-        <v>1874</v>
+        <v>1854</v>
       </c>
       <c r="D562" s="25" t="s">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="E562" s="25" t="s">
-        <v>1936</v>
+        <v>1916</v>
       </c>
       <c r="F562" s="26" t="s">
-        <v>1986</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
@@ -16142,20 +16146,20 @@
         <v>214</v>
       </c>
       <c r="D563" s="25" t="s">
-        <v>1875</v>
+        <v>1855</v>
       </c>
       <c r="E563" s="25" t="s">
-        <v>1937</v>
+        <v>1917</v>
       </c>
       <c r="F563" s="26" t="s">
-        <v>1987</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="38"/>
       <c r="B564" s="39"/>
       <c r="C564" s="24" t="s">
-        <v>1876</v>
+        <v>1856</v>
       </c>
       <c r="D564" s="25" t="s">
         <v>287</v>
@@ -16164,7 +16168,7 @@
         <v>444</v>
       </c>
       <c r="F564" s="26" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
@@ -16174,13 +16178,13 @@
         <v>173</v>
       </c>
       <c r="D565" s="25" t="s">
-        <v>1877</v>
+        <v>1857</v>
       </c>
       <c r="E565" s="25" t="s">
-        <v>1938</v>
+        <v>1918</v>
       </c>
       <c r="F565" s="26" t="s">
-        <v>1988</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
@@ -16192,29 +16196,29 @@
         <v>290</v>
       </c>
       <c r="D566" s="25" t="s">
-        <v>1878</v>
+        <v>1858</v>
       </c>
       <c r="E566" s="25" t="s">
-        <v>1939</v>
+        <v>1919</v>
       </c>
       <c r="F566" s="26" t="s">
-        <v>1989</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="38"/>
       <c r="B567" s="39"/>
       <c r="C567" s="24" t="s">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="D567" s="25" t="s">
-        <v>1879</v>
+        <v>1859</v>
       </c>
       <c r="E567" s="25" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="F567" s="26" t="s">
-        <v>1990</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -16226,13 +16230,13 @@
         <v>311</v>
       </c>
       <c r="D568" s="25" t="s">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="E568" s="25" t="s">
-        <v>1941</v>
+        <v>1921</v>
       </c>
       <c r="F568" s="26" t="s">
-        <v>1991</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
@@ -16242,13 +16246,13 @@
         <v>327</v>
       </c>
       <c r="D569" s="25" t="s">
-        <v>1882</v>
+        <v>1862</v>
       </c>
       <c r="E569" s="25" t="s">
-        <v>1942</v>
+        <v>1922</v>
       </c>
       <c r="F569" s="26" t="s">
-        <v>1992</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16258,29 +16262,29 @@
         <v>330</v>
       </c>
       <c r="D570" s="25" t="s">
-        <v>1883</v>
+        <v>1863</v>
       </c>
       <c r="E570" s="25" t="s">
-        <v>1943</v>
+        <v>1923</v>
       </c>
       <c r="F570" s="26" t="s">
-        <v>1993</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="38"/>
       <c r="B571" s="39"/>
       <c r="C571" s="24" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="D571" s="25" t="s">
-        <v>1884</v>
+        <v>1864</v>
       </c>
       <c r="E571" s="25" t="s">
-        <v>1944</v>
+        <v>1924</v>
       </c>
       <c r="F571" s="26" t="s">
-        <v>1994</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
@@ -16292,13 +16296,13 @@
         <v>352</v>
       </c>
       <c r="D572" s="25" t="s">
-        <v>1885</v>
+        <v>1865</v>
       </c>
       <c r="E572" s="25" t="s">
-        <v>1945</v>
+        <v>1925</v>
       </c>
       <c r="F572" s="26" t="s">
-        <v>1995</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16308,13 +16312,13 @@
         <v>355</v>
       </c>
       <c r="D573" s="25" t="s">
-        <v>1886</v>
+        <v>1866</v>
       </c>
       <c r="E573" s="25" t="s">
-        <v>1946</v>
+        <v>1926</v>
       </c>
       <c r="F573" s="26" t="s">
-        <v>1996</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16324,13 +16328,13 @@
         <v>358</v>
       </c>
       <c r="D574" s="25" t="s">
-        <v>1887</v>
+        <v>1867</v>
       </c>
       <c r="E574" s="25" t="s">
-        <v>1947</v>
+        <v>1927</v>
       </c>
       <c r="F574" s="26" t="s">
-        <v>1997</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16340,13 +16344,13 @@
         <v>361</v>
       </c>
       <c r="D575" s="25" t="s">
-        <v>1888</v>
+        <v>1868</v>
       </c>
       <c r="E575" s="25" t="s">
-        <v>1948</v>
+        <v>1928</v>
       </c>
       <c r="F575" s="26" t="s">
-        <v>1998</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
@@ -16356,13 +16360,13 @@
         <v>364</v>
       </c>
       <c r="D576" s="25" t="s">
-        <v>1889</v>
+        <v>1869</v>
       </c>
       <c r="E576" s="25" t="s">
-        <v>1949</v>
+        <v>1929</v>
       </c>
       <c r="F576" s="26" t="s">
-        <v>1999</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16372,13 +16376,13 @@
         <v>367</v>
       </c>
       <c r="D577" s="25" t="s">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="E577" s="25" t="s">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="F577" s="26" t="s">
-        <v>2000</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16388,13 +16392,13 @@
         <v>370</v>
       </c>
       <c r="D578" s="25" t="s">
-        <v>1891</v>
+        <v>1871</v>
       </c>
       <c r="E578" s="25" t="s">
-        <v>1951</v>
+        <v>1931</v>
       </c>
       <c r="F578" s="26" t="s">
-        <v>2001</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16404,61 +16408,61 @@
         <v>373</v>
       </c>
       <c r="D579" s="25" t="s">
-        <v>1892</v>
+        <v>1872</v>
       </c>
       <c r="E579" s="25" t="s">
-        <v>1952</v>
+        <v>1932</v>
       </c>
       <c r="F579" s="26" t="s">
-        <v>2002</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="38"/>
       <c r="B580" s="39"/>
       <c r="C580" s="24" t="s">
-        <v>1894</v>
+        <v>1874</v>
       </c>
       <c r="D580" s="25" t="s">
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="E580" s="25" t="s">
-        <v>1953</v>
+        <v>1933</v>
       </c>
       <c r="F580" s="26" t="s">
-        <v>2003</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A581" s="38"/>
       <c r="B581" s="39"/>
       <c r="C581" s="24" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="D581" s="25" t="s">
-        <v>1895</v>
+        <v>1875</v>
       </c>
       <c r="E581" s="25" t="s">
-        <v>1954</v>
+        <v>1934</v>
       </c>
       <c r="F581" s="26" t="s">
-        <v>2004</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="38"/>
       <c r="B582" s="39"/>
       <c r="C582" s="24" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="D582" s="25" t="s">
-        <v>1896</v>
+        <v>1876</v>
       </c>
       <c r="E582" s="25" t="s">
-        <v>1955</v>
+        <v>1935</v>
       </c>
       <c r="F582" s="26" t="s">
-        <v>2005</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
@@ -16470,13 +16474,13 @@
         <v>446</v>
       </c>
       <c r="D583" s="25" t="s">
-        <v>1897</v>
+        <v>1877</v>
       </c>
       <c r="E583" s="25" t="s">
-        <v>1956</v>
+        <v>1936</v>
       </c>
       <c r="F583" s="26" t="s">
-        <v>2006</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16486,45 +16490,45 @@
         <v>462</v>
       </c>
       <c r="D584" s="25" t="s">
-        <v>1898</v>
+        <v>1878</v>
       </c>
       <c r="E584" s="25" t="s">
-        <v>1957</v>
+        <v>1937</v>
       </c>
       <c r="F584" s="26" t="s">
-        <v>2007</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="38"/>
       <c r="B585" s="39"/>
       <c r="C585" s="24" t="s">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="D585" s="25" t="s">
-        <v>1899</v>
+        <v>1879</v>
       </c>
       <c r="E585" s="25" t="s">
-        <v>1958</v>
+        <v>1938</v>
       </c>
       <c r="F585" s="26" t="s">
-        <v>2008</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A586" s="38"/>
       <c r="B586" s="39"/>
       <c r="C586" s="24" t="s">
-        <v>1902</v>
+        <v>1882</v>
       </c>
       <c r="D586" s="25" t="s">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="E586" s="25" t="s">
-        <v>1959</v>
+        <v>1939</v>
       </c>
       <c r="F586" s="26" t="s">
-        <v>2009</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
@@ -16536,13 +16540,13 @@
         <v>497</v>
       </c>
       <c r="D587" s="25" t="s">
-        <v>1903</v>
+        <v>1883</v>
       </c>
       <c r="E587" s="25" t="s">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="F587" s="26" t="s">
-        <v>2010</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16552,13 +16556,13 @@
         <v>500</v>
       </c>
       <c r="D588" s="25" t="s">
-        <v>1904</v>
+        <v>1884</v>
       </c>
       <c r="E588" s="25" t="s">
-        <v>1961</v>
+        <v>1941</v>
       </c>
       <c r="F588" s="26" t="s">
-        <v>2011</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.3">
@@ -16568,45 +16572,45 @@
         <v>509</v>
       </c>
       <c r="D589" s="25" t="s">
-        <v>1905</v>
+        <v>1885</v>
       </c>
       <c r="E589" s="25" t="s">
-        <v>1962</v>
+        <v>1942</v>
       </c>
       <c r="F589" s="26" t="s">
-        <v>2012</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="38"/>
       <c r="B590" s="39"/>
       <c r="C590" s="24" t="s">
-        <v>1907</v>
+        <v>1887</v>
       </c>
       <c r="D590" s="25" t="s">
-        <v>1906</v>
+        <v>1886</v>
       </c>
       <c r="E590" s="25" t="s">
-        <v>1963</v>
+        <v>1943</v>
       </c>
       <c r="F590" s="26" t="s">
-        <v>2013</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="38"/>
       <c r="B591" s="24"/>
       <c r="C591" s="24" t="s">
-        <v>1909</v>
+        <v>1889</v>
       </c>
       <c r="D591" s="25" t="s">
-        <v>1908</v>
+        <v>1888</v>
       </c>
       <c r="E591" s="25" t="s">
-        <v>1964</v>
+        <v>1944</v>
       </c>
       <c r="F591" s="26" t="s">
-        <v>2014</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
@@ -16616,173 +16620,173 @@
         <v>563</v>
       </c>
       <c r="D592" s="25" t="s">
-        <v>1908</v>
+        <v>1888</v>
       </c>
       <c r="E592" s="25" t="s">
-        <v>1965</v>
+        <v>1945</v>
       </c>
       <c r="F592" s="26" t="s">
-        <v>2015</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="38"/>
       <c r="B593" s="39"/>
       <c r="C593" s="24" t="s">
-        <v>1911</v>
+        <v>1891</v>
       </c>
       <c r="D593" s="25" t="s">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="E593" s="25" t="s">
-        <v>1966</v>
+        <v>1946</v>
       </c>
       <c r="F593" s="26" t="s">
-        <v>2016</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A594" s="38"/>
       <c r="B594" s="39"/>
       <c r="C594" s="24" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="D594" s="25" t="s">
-        <v>1912</v>
+        <v>1892</v>
       </c>
       <c r="E594" s="25" t="s">
-        <v>1967</v>
+        <v>1947</v>
       </c>
       <c r="F594" s="26" t="s">
-        <v>2017</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A595" s="38"/>
       <c r="B595" s="39"/>
       <c r="C595" s="24" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
       <c r="D595" s="25" t="s">
-        <v>1913</v>
+        <v>1893</v>
       </c>
       <c r="E595" s="25" t="s">
-        <v>1968</v>
+        <v>1948</v>
       </c>
       <c r="F595" s="26" t="s">
-        <v>2018</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="38"/>
       <c r="B596" s="39"/>
       <c r="C596" s="24" t="s">
-        <v>1915</v>
+        <v>1895</v>
       </c>
       <c r="D596" s="25" t="s">
-        <v>1914</v>
+        <v>1894</v>
       </c>
       <c r="E596" s="25" t="s">
-        <v>1969</v>
+        <v>1949</v>
       </c>
       <c r="F596" s="26" t="s">
-        <v>2019</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A597" s="38"/>
       <c r="B597" s="39"/>
       <c r="C597" s="24" t="s">
-        <v>1917</v>
+        <v>1897</v>
       </c>
       <c r="D597" s="25" t="s">
-        <v>1916</v>
+        <v>1896</v>
       </c>
       <c r="E597" s="25" t="s">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="F597" s="26" t="s">
-        <v>2020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A598" s="38"/>
       <c r="B598" s="39"/>
       <c r="C598" s="24" t="s">
-        <v>1919</v>
+        <v>1899</v>
       </c>
       <c r="D598" s="25" t="s">
-        <v>1918</v>
+        <v>1898</v>
       </c>
       <c r="E598" s="25" t="s">
-        <v>1971</v>
+        <v>1951</v>
       </c>
       <c r="F598" s="26" t="s">
-        <v>2021</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="38"/>
       <c r="B599" s="39"/>
       <c r="C599" s="24" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="D599" s="25" t="s">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="E599" s="25" t="s">
-        <v>1972</v>
+        <v>1952</v>
       </c>
       <c r="F599" s="26" t="s">
-        <v>2022</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A600" s="38"/>
       <c r="B600" s="39"/>
       <c r="C600" s="24" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="D600" s="25" t="s">
-        <v>1921</v>
+        <v>1901</v>
       </c>
       <c r="E600" s="25" t="s">
-        <v>1973</v>
+        <v>1953</v>
       </c>
       <c r="F600" s="26" t="s">
-        <v>2023</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="38"/>
       <c r="B601" s="39"/>
       <c r="C601" s="24" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="D601" s="25" t="s">
-        <v>1922</v>
+        <v>1902</v>
       </c>
       <c r="E601" s="25" t="s">
-        <v>1974</v>
+        <v>1954</v>
       </c>
       <c r="F601" s="26" t="s">
-        <v>2024</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A602" s="38"/>
       <c r="B602" s="39"/>
       <c r="C602" s="24" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="D602" s="25" t="s">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="E602" s="25" t="s">
-        <v>1975</v>
+        <v>1955</v>
       </c>
       <c r="F602" s="26" t="s">
-        <v>2025</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16794,45 +16798,45 @@
         <v>714</v>
       </c>
       <c r="D603" s="25" t="s">
-        <v>1924</v>
+        <v>1904</v>
       </c>
       <c r="E603" s="25" t="s">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="F603" s="26" t="s">
-        <v>2026</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A604" s="38"/>
       <c r="B604" s="39"/>
       <c r="C604" s="24" t="s">
-        <v>1926</v>
+        <v>1906</v>
       </c>
       <c r="D604" s="25" t="s">
-        <v>1925</v>
+        <v>1905</v>
       </c>
       <c r="E604" s="25" t="s">
-        <v>1977</v>
+        <v>1957</v>
       </c>
       <c r="F604" s="26" t="s">
-        <v>2027</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A605" s="38"/>
       <c r="B605" s="39"/>
       <c r="C605" s="24" t="s">
-        <v>1928</v>
+        <v>1908</v>
       </c>
       <c r="D605" s="25" t="s">
-        <v>1927</v>
+        <v>1907</v>
       </c>
       <c r="E605" s="25" t="s">
-        <v>1978</v>
+        <v>1958</v>
       </c>
       <c r="F605" s="26" t="s">
-        <v>2028</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16844,13 +16848,13 @@
         <v>751</v>
       </c>
       <c r="D606" s="30" t="s">
-        <v>1929</v>
+        <v>1909</v>
       </c>
       <c r="E606" s="30" t="s">
-        <v>1979</v>
+        <v>1959</v>
       </c>
       <c r="F606" s="31" t="s">
-        <v>2029</v>
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
